--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +1010,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.96</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1105,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1121,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.96</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1254,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1270,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.96</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,319 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达亚洲精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2125</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001668</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6069</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000934</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3289</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006370</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3289</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2628</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1599</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0633</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+      <c r="D6" t="n">
+        <v>2.96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -828,36 +622,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513360</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.06</t>
+          <t>77.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2310</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -932,22 +764,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>99.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4482</t>
+          <t>0.6147</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1026,22 +858,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6147</t>
+          <t>0.4482</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1059,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,7 +912,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1110,74 +942,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>513360</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.12</t>
+          <t>98.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.2310</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>014127</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1191,112 +985,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.45</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.96</v>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.96</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -690,100 +953,6 @@
       </c>
       <c r="H3" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513360</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6147</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -858,22 +1027,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>99.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4482</t>
+          <t>0.6147</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -912,7 +1081,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -957,21 +1126,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.06</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2310</t>
+          <t>0.4482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -980,6 +1149,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/EDU-新东方.xlsx
+++ b/数据整理/stocks/其他/EDU-新东方.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.43</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.96</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -828,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -953,100 +1330,6 @@
       </c>
       <c r="H3" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513360</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6147</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1121,22 +1404,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>99.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4482</t>
+          <t>0.6147</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1175,7 +1458,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1220,21 +1503,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.06</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2310</t>
+          <t>0.4482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1243,6 +1526,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
